--- a/bank_model/data/BankFieldDictionary.xlsx
+++ b/bank_model/data/BankFieldDictionary.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bản sao\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Model CGV25\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02171367-A8B5-4835-B2ED-539A19AEFFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73748365-C26A-4280-AA22-7BD9A1705188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NoteBank" sheetId="9" r:id="rId1"/>
-    <sheet name="CashFlow - Bank" sheetId="8" r:id="rId2"/>
-    <sheet name="IncomeStatement - Bank" sheetId="7" r:id="rId3"/>
+    <sheet name="CashFlow - Bank" sheetId="11" r:id="rId2"/>
+    <sheet name="IncomeStatement - Bank" sheetId="10" r:id="rId3"/>
     <sheet name="BalanceSheet - Bank" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="855">
   <si>
     <t>Field Name</t>
   </si>
@@ -2342,247 +2342,268 @@
     <t>Lợi ích của cổ đông không kiểm soát</t>
   </si>
   <si>
-    <t>Thu nhập lãi thuần</t>
-  </si>
-  <si>
-    <t>Thu nhập từ hoạt động dịch vụ</t>
-  </si>
-  <si>
-    <t>Chi phí hoạt động dịch vụ</t>
-  </si>
-  <si>
-    <t>Lãi thuần từ mua bán chứng khoán đầu tư và đầu tư dài hạn</t>
-  </si>
-  <si>
-    <t>Thu nhập từ hoạt động khác</t>
-  </si>
-  <si>
-    <t>Chi phí cho hoạt động khác</t>
-  </si>
-  <si>
-    <t>Thu nhập từ góp vốn, mua cổ phần</t>
-  </si>
-  <si>
-    <t>Tổng thu nhập hoạt động</t>
-  </si>
-  <si>
-    <t>Lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng</t>
-  </si>
-  <si>
-    <t>Chi phí dự phòng rủi ro tín dụng</t>
-  </si>
-  <si>
-    <t>Tổng lợi nhuận trước thuế</t>
-  </si>
-  <si>
-    <t>Chi phí thuế thu nhập doanh nghiệp</t>
-  </si>
-  <si>
-    <t>Chi phí thuế thu nhập doanh nghiệp hiện hành</t>
-  </si>
-  <si>
-    <t>Thu nhập thuế thu nhập hoãn lại</t>
-  </si>
-  <si>
-    <t>Lợi nhuận sau thuế</t>
-  </si>
-  <si>
-    <t>Lợi ích của cổ đông thiểu không kiểm soát</t>
-  </si>
-  <si>
-    <t>Lợi nhuận sau thuế thuộc về Ngân hàng mẹ</t>
-  </si>
-  <si>
-    <t>Lãi cơ bản trên cổ phiếu (VND/cổ phiếu)</t>
-  </si>
-  <si>
-    <t>Thu nhập lãi và các khoản tương đương (Trực tiếp)</t>
-  </si>
-  <si>
-    <t>Chi phí lãi và các khoản tương đương  (Trực tiếp)</t>
-  </si>
-  <si>
-    <t>Thu nhập từ hoạt động dịch vụ nhận được  (Trực tiếp)</t>
-  </si>
-  <si>
-    <t>Chênh lệch số tiền thực thu/thực chi từ hoạt động kinh doanh</t>
-  </si>
-  <si>
-    <t>Thu nhập thuần từ hoạt động kinh doanh ngoại hối và vàng  (Trực tiếp)</t>
-  </si>
-  <si>
-    <t>Thu nhập từ hoạt động kinh doanh chứng khoán  (Trực tiếp)</t>
-  </si>
-  <si>
-    <t>Thu nhập khác (Trực tiếp)</t>
-  </si>
-  <si>
-    <t>Tiền thu các khoản nợ đã được xử lý, xóa, bù đắp bằng nguồn rủi ro</t>
-  </si>
-  <si>
-    <t>Thanh toán cho nhân viên và nhà cung cấp (Trực tiếp)</t>
-  </si>
-  <si>
-    <t>Tiền chi nộp thuế thu nhập doanh nghiệp (Trực tiếp)</t>
-  </si>
-  <si>
-    <t>Lãi trước thuế (Gián tiếp)</t>
-  </si>
-  <si>
-    <t>Khấu hao TSCĐ (Gián tiếp)</t>
-  </si>
-  <si>
-    <t>Chi phí dự phòng (Gián tiếp)</t>
-  </si>
-  <si>
-    <t>Thu lãi và cổ tức (Gián tiếp)</t>
-  </si>
-  <si>
-    <t>Chi phí lãi vay (Gián tiếp)</t>
-  </si>
-  <si>
-    <t>Lãi/lỗ từ thanh lý tài sản cố định (Gián tiếp)</t>
-  </si>
-  <si>
-    <t>Lãi/lỗ do bán/thanh lý bất động sản đầu tư (Gián tiếp)</t>
-  </si>
-  <si>
-    <t>Lãi/lỗ từ hoạt động đầu tư (Gián tiếp)</t>
-  </si>
-  <si>
-    <t>Lãi/lỗ chênh lệch tỷ giá chưa thực hiện (Gián tiếp)</t>
-  </si>
-  <si>
-    <t>Các điều chỉnh khác (Gián tiếp)</t>
-  </si>
-  <si>
-    <t>Lãi/lỗ trước những thay đổi vốn lưu động</t>
-  </si>
-  <si>
-    <t>Tiền gửi tại NHNN</t>
-  </si>
-  <si>
-    <t>Tăng/Giảm các khoản tiền gửi và cho vay các tổ chức tín dụng khác</t>
-  </si>
-  <si>
-    <t>Tăng/giảm các khoản về kinh doanh chứng khoán</t>
-  </si>
-  <si>
-    <t>Tăng/Giảm các công cụ tài chính phái sinh và các tài sản tài chính khác</t>
-  </si>
-  <si>
-    <t>Tăng/Giảm các khoản cho vay khách hàng</t>
-  </si>
-  <si>
-    <t>Tăng/Giảm lãi, phí phải thu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tăng/Giảm nguồn dự phòng để bù đắp tổn thất các khoản </t>
-  </si>
-  <si>
-    <t>Tăng/Giảm khác về tài sản hoạt động</t>
-  </si>
-  <si>
-    <t>Tăng/Giảm các khoản nợ chính phủ và NHNN</t>
-  </si>
-  <si>
-    <t>Tăng/Giảm các khoản tiền gửi và vay các TCTD khác</t>
-  </si>
-  <si>
-    <t>Tăng/Giảm tiền gửi của khách hàng</t>
-  </si>
-  <si>
-    <t>Tăng/Giảm các công cụ tài chính phái sinh và các khoản nợ tài chính khác</t>
-  </si>
-  <si>
-    <t>Tăng/Giảm vốn tài trợ, uỷ thác đầu tư của chính phủ và các TCTD khác</t>
-  </si>
-  <si>
-    <t>Tăng/Giảm phát hành giấy tờ có giá</t>
-  </si>
-  <si>
-    <t>Tăng/Giảm lãi, phí phải trả</t>
-  </si>
-  <si>
-    <t>Tăng/Giảm khác về công nợ hoạt động</t>
-  </si>
-  <si>
-    <t>Lưu chuyển tiền thuần từ hoạt động kinh doanh trước thuế thu nhập DN</t>
-  </si>
-  <si>
-    <t>Thuế thu nhập doanh nghiệp đã trả</t>
-  </si>
-  <si>
-    <t>Chi từ các quỹ của TCTD</t>
-  </si>
-  <si>
-    <t>Thu được từ nợ khó đòi</t>
-  </si>
-  <si>
-    <t>LƯU CHUYỂN TIỀN TỆ RÒNG TỪ CÁC HOẠT ĐỘNG SẢN XUẤT KINH DOANH</t>
-  </si>
-  <si>
-    <t>Tiền mua tài sản cố định và các tài sản dài hạn khác</t>
-  </si>
-  <si>
-    <t>Tiền thu được từ thanh lý tài sản cố định</t>
-  </si>
-  <si>
-    <t>Tiền chi từ thanh lý, nhượng bán TSCĐ</t>
-  </si>
-  <si>
-    <t>Mua sắm Bất động sản đầu tư</t>
-  </si>
-  <si>
-    <t>Tiền thu từ bán, thanh lý bất động sản đầu tư</t>
-  </si>
-  <si>
-    <t>Tiền chi ra do bán, thanh lý bất động sản đầu tư</t>
-  </si>
-  <si>
-    <t>Đầu tư vào các doanh nghiệp khác</t>
-  </si>
-  <si>
-    <t>Tiền thu từ việc bán các khoản đầu tư vào các doanh nghiệp khác</t>
-  </si>
-  <si>
-    <t>Cổ tức và tiền lãi nhận được</t>
-  </si>
-  <si>
-    <t>LƯU CHUYỂN TIỀN TỆ RÒNG TỪ HOẠT ĐỘNG ĐẦU TƯ</t>
-  </si>
-  <si>
-    <t>Tiền thu từ phát hành cổ phiếu và vốn góp</t>
-  </si>
-  <si>
-    <t>Tiền thu từ phát hành giấy tờ có giá dài hạn đủ điều kiện tính vào vốn tự có và các khoản vốn vay dài hạn khác</t>
-  </si>
-  <si>
-    <t>Tiền chi thanh toán giấy tờ có giá dài hạn đủ điều kiện tính vào vốn tự có và các khoản vốn vay dài hạn khác</t>
-  </si>
-  <si>
-    <t>Cổ tức đã trả</t>
-  </si>
-  <si>
-    <t>Tiền chi ra mua cổ phiếu quỹ</t>
-  </si>
-  <si>
-    <t>tiền thu được do bán cổ phiếu quỹ</t>
-  </si>
-  <si>
-    <t>LƯU CHUYỂN TIỀN TỆ TỪ HOẠT ĐỘNG TÀI CHÍNH</t>
-  </si>
-  <si>
-    <t>LƯU CHUYỂN TIỀN THUẦN TRONG KỲ</t>
-  </si>
-  <si>
-    <t>Tiền và tương đương tiền đầu kỳ</t>
-  </si>
-  <si>
-    <t>Ảnh hưởng của chênh lệch tỷ giá</t>
-  </si>
-  <si>
-    <t>TIỀN VÀ TƯƠNG ĐƯƠNG TIỀN CUỐI KỲ</t>
+    <t>1.1. Thu nhập lãi và các khoản thu nhập tương tự</t>
+  </si>
+  <si>
+    <t>1.2. Chi phí lãi và các chi phí tương tự</t>
+  </si>
+  <si>
+    <t>1. Thu nhập lãi thuần</t>
+  </si>
+  <si>
+    <t>2.1. Thu nhập từ hoạt động dịch vụ</t>
+  </si>
+  <si>
+    <t>2.2. Chi phí hoạt động dịch vụ</t>
+  </si>
+  <si>
+    <t>2. Lãi thuần từ hoạt động dịch vụ</t>
+  </si>
+  <si>
+    <t>3. Lãi/lỗ thuần từ hoạt động kinh doanh ngoại hối và vàng</t>
+  </si>
+  <si>
+    <t>4. Lãi/lỗ thuần từ mua bán chứng khoán kinh doanh</t>
+  </si>
+  <si>
+    <t>5. Lãi/lỗ thuần từ mua bán chứng khoán đầu tư</t>
+  </si>
+  <si>
+    <t>6.1. Thu nhập từ hoạt động khác</t>
+  </si>
+  <si>
+    <t>6.2. Chi phí hoạt động khác</t>
+  </si>
+  <si>
+    <t>6. Lãi/lỗ thuần từ hoạt động khác</t>
+  </si>
+  <si>
+    <t>7. Thu nhập từ góp vốn, mua cổ phần</t>
+  </si>
+  <si>
+    <t>8. Tổng thu nhập hoạt động</t>
+  </si>
+  <si>
+    <t>9. Chi phí hoạt động</t>
+  </si>
+  <si>
+    <t>10. LN thuần từ hoạt động kinh doanh trước CP dự phòng rủi ro tín dụng</t>
+  </si>
+  <si>
+    <t>11. Chi phí dự phòng rủi ro tín dụng</t>
+  </si>
+  <si>
+    <t>12. Tổng lợi nhuận trước thuế</t>
+  </si>
+  <si>
+    <t>13. Chi phí thuế thu nhập doanh nghiệp</t>
+  </si>
+  <si>
+    <t>13.1. Chi phí thuế TNDN hiện hành</t>
+  </si>
+  <si>
+    <t>13.2. Chi phí thuế TNDN hoãn lại</t>
+  </si>
+  <si>
+    <t>14. Lợi nhuận sau thuế</t>
+  </si>
+  <si>
+    <t>15. Lợi ích của cổ đông thiểu số</t>
+  </si>
+  <si>
+    <t>16. Cổ đông của Công ty mẹ</t>
+  </si>
+  <si>
+    <t>17. Lãi cơ bản trên cổ phiếu</t>
+  </si>
+  <si>
+    <t>1.Thu nhập lãi và các khoản tương đương (Trực tiếp)</t>
+  </si>
+  <si>
+    <t>2.Chi phí lãi và các khoản tương đương  (Trực tiếp)</t>
+  </si>
+  <si>
+    <t>3.Thu nhập từ hoạt động dịch vụ nhận được  (Trực tiếp)</t>
+  </si>
+  <si>
+    <t>4. Chênh lệch số tiền thực thu/thực chi từ hoạt động kinh doanh</t>
+  </si>
+  <si>
+    <t>4.Thu nhập thuần từ hoạt động kinh doanh ngoại hối và vàng  (Trực tiếp)</t>
+  </si>
+  <si>
+    <t>5.Thu nhập từ hoạt động kinh doanh chứng khoán  (Trực tiếp)</t>
+  </si>
+  <si>
+    <t>6.Thu nhập khác (Trực tiếp)</t>
+  </si>
+  <si>
+    <t>7.Tiền thu các khoản nợ đã được xử lý, xóa, bù đắp bằng nguồn rủi ro</t>
+  </si>
+  <si>
+    <t>8.Thanh toán cho nhân viên và nhà cung cấp (Trực tiếp)</t>
+  </si>
+  <si>
+    <t>9.Tiền chi nộp thuế thu nhập doanh nghiệp (Trực tiếp)</t>
+  </si>
+  <si>
+    <t>31.Lãi trước thuế (Gián tiếp)</t>
+  </si>
+  <si>
+    <t>32.Khấu hao TSCĐ (Gián tiếp)</t>
+  </si>
+  <si>
+    <t>33.Chi phí dự phòng (Gián tiếp)</t>
+  </si>
+  <si>
+    <t>34.Thu lãi và cổ tức (Gián tiếp)</t>
+  </si>
+  <si>
+    <t>35.Chi phí lãi vay (Gián tiếp)</t>
+  </si>
+  <si>
+    <t>36.Lãi/lỗ từ thanh lý tài sản cố định (Gián tiếp)</t>
+  </si>
+  <si>
+    <t>37.Lãi/lỗ do bán/thanh lý bất động sản đầu tư (Gián tiếp)</t>
+  </si>
+  <si>
+    <t>38.Lãi/lỗ từ hoạt động đầu tư (Gián tiếp)</t>
+  </si>
+  <si>
+    <t>39.Lãi/lỗ chênh lệch tỷ giá chưa thực hiện (Gián tiếp)</t>
+  </si>
+  <si>
+    <t>40.Các điều chỉnh khác (Gián tiếp)</t>
+  </si>
+  <si>
+    <t>41.Lãi/lỗ trước những thay đổi vốn lưu động</t>
+  </si>
+  <si>
+    <t>42.Tiền gửi tại NHNN</t>
+  </si>
+  <si>
+    <t>43.Tăng/Giảm các khoản tiền gửi và cho vay các tổ chức tín dụng khác</t>
+  </si>
+  <si>
+    <t>44.Tăng/giảm các khoản về kinh doanh chứng khoán</t>
+  </si>
+  <si>
+    <t>45.Tăng/Giảm các công cụ tài chính phái sinh và các tài sản tài chính khác</t>
+  </si>
+  <si>
+    <t>46.Tăng/Giảm các khoản cho vay khách hàng</t>
+  </si>
+  <si>
+    <t>47.Tăng/Giảm lãi, phí phải thu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.Tăng/Giảm nguồn dự phòng để bù đắp tổn thất các khoản </t>
+  </si>
+  <si>
+    <t>49.Tăng/Giảm khác về tài sản hoạt động</t>
+  </si>
+  <si>
+    <t>50.Tăng/Giảm các khoản nợ chính phủ và NHNN</t>
+  </si>
+  <si>
+    <t>51.Tăng/Giảm các khoản tiền gửi và vay các TCTD khác</t>
+  </si>
+  <si>
+    <t>52.Tăng/Giảm tiền gửi của khách hàng</t>
+  </si>
+  <si>
+    <t>53.Tăng/Giảm các công cụ tài chính phái sinh và các khoản nợ tài chính khác</t>
+  </si>
+  <si>
+    <t>54.Tăng/Giảm vốn tài trợ, uỷ thác đầu tư của chính phủ và các TCTD khác</t>
+  </si>
+  <si>
+    <t>55.Tăng/Giảm phát hành giấy tờ có giá</t>
+  </si>
+  <si>
+    <t>56.Tăng/Giảm lãi, phí phải trả</t>
+  </si>
+  <si>
+    <t>57.Tăng/Giảm khác về công nợ hoạt động</t>
+  </si>
+  <si>
+    <t>58.Lưu chuyển tiền thuần từ hoạt động kinh doanh trước thuế thu nhập DN</t>
+  </si>
+  <si>
+    <t>59.Thuế thu nhập doanh nghiệp đã trả</t>
+  </si>
+  <si>
+    <t>60.Chi từ các quỹ của TCTD</t>
+  </si>
+  <si>
+    <t>61.Thu được từ nợ khó đòi</t>
+  </si>
+  <si>
+    <t>62.LƯU CHUYỂN TIỀN TỆ RÒNG TỪ CÁC HOẠT ĐỘNG SẢN XUẤT KINH DOANH</t>
+  </si>
+  <si>
+    <t>63.Tiền mua tài sản cố định và các tài sản dài hạn khác</t>
+  </si>
+  <si>
+    <t>64.Tiền thu được từ thanh lý tài sản cố định</t>
+  </si>
+  <si>
+    <t>65.Tiền chi từ thanh lý, nhượng bán TSCĐ</t>
+  </si>
+  <si>
+    <t>66.Mua sắm Bất động sản đầu tư</t>
+  </si>
+  <si>
+    <t>67.Tiền thu từ bán, thanh lý bất động sản đầu tư</t>
+  </si>
+  <si>
+    <t>68.Tiền chi ra do bán, thanh lý bất động sản đầu tư</t>
+  </si>
+  <si>
+    <t>69.Đầu tư vào các doanh nghiệp khác</t>
+  </si>
+  <si>
+    <t>70.Tiền thu từ việc bán các khoản đầu tư vào các doanh nghiệp khác</t>
+  </si>
+  <si>
+    <t>71.Cổ tức và tiền lãi nhận được</t>
+  </si>
+  <si>
+    <t>72.LƯU CHUYỂN TIỀN TỆ RÒNG TỪ HOẠT ĐỘNG ĐẦU TƯ</t>
+  </si>
+  <si>
+    <t>73.Tiền thu từ phát hành cổ phiếu và vốn góp</t>
+  </si>
+  <si>
+    <t>74.Tiền thu từ phát hành giấy tờ có giá dài hạn đủ điều kiện tính vào vốn tự có và các khoản vốn vay dài hạn khác</t>
+  </si>
+  <si>
+    <t>75.Tiền chi thanh toán giấy tờ có giá dài hạn đủ điều kiện tính vào vốn tự có và các khoản vốn vay dài hạn khác</t>
+  </si>
+  <si>
+    <t>76.Cổ tức đã trả</t>
+  </si>
+  <si>
+    <t>77.Tiền chi ra mua cổ phiếu quỹ</t>
+  </si>
+  <si>
+    <t>78.tiền thu được do bán cổ phiếu quỹ</t>
+  </si>
+  <si>
+    <t>79.LƯU CHUYỂN TIỀN TỆ TỪ HOẠT ĐỘNG TÀI CHÍNH</t>
+  </si>
+  <si>
+    <t>80.LƯU CHUYỂN TIỀN THUẦN TRONG KỲ</t>
+  </si>
+  <si>
+    <t>81.Tiền và tương đương tiền đầu kỳ</t>
+  </si>
+  <si>
+    <t>82.Ảnh hưởng của chênh lệch tỷ giá</t>
+  </si>
+  <si>
+    <t>83.TIỀN VÀ TƯƠNG ĐƯƠNG TIỀN CUỐI KỲ</t>
   </si>
 </sst>
 </file>
@@ -2909,7 +2930,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C10" sqref="C10:E10"/>
       <selection pane="bottomLeft" activeCell="C10" sqref="C10:E10"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4685,23 +4706,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FB3F75-59F8-4632-909F-20FCB385B09D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E72C31-7B70-42BE-846D-0A1818BFB3C5}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10:E10"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10:E10"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.1796875" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="96" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -4717,7 +4735,7 @@
         <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -4725,7 +4743,7 @@
         <v>228</v>
       </c>
       <c r="B3" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -4733,7 +4751,7 @@
         <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4741,7 +4759,7 @@
         <v>230</v>
       </c>
       <c r="B5" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -4749,7 +4767,7 @@
         <v>231</v>
       </c>
       <c r="B6" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -4757,7 +4775,7 @@
         <v>232</v>
       </c>
       <c r="B7" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -4765,7 +4783,7 @@
         <v>233</v>
       </c>
       <c r="B8" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -4773,7 +4791,7 @@
         <v>234</v>
       </c>
       <c r="B9" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -4781,7 +4799,7 @@
         <v>235</v>
       </c>
       <c r="B10" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -4789,7 +4807,7 @@
         <v>236</v>
       </c>
       <c r="B11" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -4797,7 +4815,7 @@
         <v>237</v>
       </c>
       <c r="B12" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -4805,7 +4823,7 @@
         <v>238</v>
       </c>
       <c r="B13" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -4813,7 +4831,7 @@
         <v>239</v>
       </c>
       <c r="B14" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -4821,7 +4839,7 @@
         <v>240</v>
       </c>
       <c r="B15" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -4829,7 +4847,7 @@
         <v>241</v>
       </c>
       <c r="B16" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -4837,7 +4855,7 @@
         <v>242</v>
       </c>
       <c r="B17" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -4845,7 +4863,7 @@
         <v>243</v>
       </c>
       <c r="B18" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -4853,7 +4871,7 @@
         <v>244</v>
       </c>
       <c r="B19" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -4861,7 +4879,7 @@
         <v>245</v>
       </c>
       <c r="B20" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -4869,7 +4887,7 @@
         <v>246</v>
       </c>
       <c r="B21" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -4877,7 +4895,7 @@
         <v>247</v>
       </c>
       <c r="B22" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -4885,7 +4903,7 @@
         <v>248</v>
       </c>
       <c r="B23" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -4893,7 +4911,7 @@
         <v>249</v>
       </c>
       <c r="B24" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -4901,7 +4919,7 @@
         <v>250</v>
       </c>
       <c r="B25" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -4909,7 +4927,7 @@
         <v>251</v>
       </c>
       <c r="B26" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -4917,7 +4935,7 @@
         <v>252</v>
       </c>
       <c r="B27" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -4925,7 +4943,7 @@
         <v>253</v>
       </c>
       <c r="B28" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -4933,7 +4951,7 @@
         <v>254</v>
       </c>
       <c r="B29" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -4941,7 +4959,7 @@
         <v>255</v>
       </c>
       <c r="B30" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -4949,7 +4967,7 @@
         <v>256</v>
       </c>
       <c r="B31" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -4957,7 +4975,7 @@
         <v>257</v>
       </c>
       <c r="B32" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -4965,7 +4983,7 @@
         <v>258</v>
       </c>
       <c r="B33" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -4973,7 +4991,7 @@
         <v>259</v>
       </c>
       <c r="B34" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -4981,7 +4999,7 @@
         <v>260</v>
       </c>
       <c r="B35" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -4989,7 +5007,7 @@
         <v>261</v>
       </c>
       <c r="B36" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -4997,7 +5015,7 @@
         <v>262</v>
       </c>
       <c r="B37" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -5005,7 +5023,7 @@
         <v>263</v>
       </c>
       <c r="B38" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -5013,7 +5031,7 @@
         <v>264</v>
       </c>
       <c r="B39" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -5021,7 +5039,7 @@
         <v>265</v>
       </c>
       <c r="B40" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -5029,7 +5047,7 @@
         <v>266</v>
       </c>
       <c r="B41" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -5037,7 +5055,7 @@
         <v>267</v>
       </c>
       <c r="B42" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -5045,7 +5063,7 @@
         <v>268</v>
       </c>
       <c r="B43" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -5053,7 +5071,7 @@
         <v>269</v>
       </c>
       <c r="B44" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -5061,7 +5079,7 @@
         <v>270</v>
       </c>
       <c r="B45" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -5069,7 +5087,7 @@
         <v>271</v>
       </c>
       <c r="B46" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -5077,7 +5095,7 @@
         <v>272</v>
       </c>
       <c r="B47" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -5085,7 +5103,7 @@
         <v>273</v>
       </c>
       <c r="B48" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -5093,7 +5111,7 @@
         <v>274</v>
       </c>
       <c r="B49" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -5101,7 +5119,7 @@
         <v>275</v>
       </c>
       <c r="B50" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -5109,7 +5127,7 @@
         <v>276</v>
       </c>
       <c r="B51" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -5117,7 +5135,7 @@
         <v>277</v>
       </c>
       <c r="B52" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -5125,7 +5143,7 @@
         <v>278</v>
       </c>
       <c r="B53" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -5133,7 +5151,7 @@
         <v>279</v>
       </c>
       <c r="B54" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -5141,7 +5159,7 @@
         <v>280</v>
       </c>
       <c r="B55" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -5149,7 +5167,7 @@
         <v>281</v>
       </c>
       <c r="B56" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -5157,7 +5175,7 @@
         <v>282</v>
       </c>
       <c r="B57" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -5165,7 +5183,7 @@
         <v>283</v>
       </c>
       <c r="B58" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -5173,7 +5191,7 @@
         <v>284</v>
       </c>
       <c r="B59" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -5181,7 +5199,7 @@
         <v>285</v>
       </c>
       <c r="B60" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -5189,7 +5207,7 @@
         <v>286</v>
       </c>
       <c r="B61" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -5197,7 +5215,7 @@
         <v>287</v>
       </c>
       <c r="B62" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -5205,7 +5223,7 @@
         <v>288</v>
       </c>
       <c r="B63" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -5213,33 +5231,29 @@
         <v>289</v>
       </c>
       <c r="B64" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CBF3DF-BF65-4AD8-838B-B99A27DC1E4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7485153E-4D56-4EA4-BD64-97A91E924194}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" customWidth="1"/>
+    <col min="2" max="2" width="61.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -5255,7 +5269,7 @@
         <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -5263,7 +5277,7 @@
         <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>472</v>
+        <v>768</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -5271,7 +5285,7 @@
         <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -5279,7 +5293,7 @@
         <v>205</v>
       </c>
       <c r="B5" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -5287,7 +5301,7 @@
         <v>206</v>
       </c>
       <c r="B6" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -5295,7 +5309,7 @@
         <v>207</v>
       </c>
       <c r="B7" t="s">
-        <v>482</v>
+        <v>772</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -5303,7 +5317,7 @@
         <v>208</v>
       </c>
       <c r="B8" t="s">
-        <v>512</v>
+        <v>773</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -5311,7 +5325,7 @@
         <v>209</v>
       </c>
       <c r="B9" t="s">
-        <v>530</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -5319,7 +5333,7 @@
         <v>210</v>
       </c>
       <c r="B10" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -5327,7 +5341,7 @@
         <v>211</v>
       </c>
       <c r="B11" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -5335,7 +5349,7 @@
         <v>212</v>
       </c>
       <c r="B12" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -5343,7 +5357,7 @@
         <v>213</v>
       </c>
       <c r="B13" t="s">
-        <v>687</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -5351,7 +5365,7 @@
         <v>214</v>
       </c>
       <c r="B14" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -5359,7 +5373,7 @@
         <v>215</v>
       </c>
       <c r="B15" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -5367,7 +5381,7 @@
         <v>216</v>
       </c>
       <c r="B16" t="s">
-        <v>552</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -5375,7 +5389,7 @@
         <v>217</v>
       </c>
       <c r="B17" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -5383,7 +5397,7 @@
         <v>218</v>
       </c>
       <c r="B18" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -5391,7 +5405,7 @@
         <v>219</v>
       </c>
       <c r="B19" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -5399,7 +5413,7 @@
         <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -5407,7 +5421,7 @@
         <v>221</v>
       </c>
       <c r="B21" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -5415,7 +5429,7 @@
         <v>222</v>
       </c>
       <c r="B22" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -5423,7 +5437,7 @@
         <v>223</v>
       </c>
       <c r="B23" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -5431,7 +5445,7 @@
         <v>224</v>
       </c>
       <c r="B24" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -5439,7 +5453,7 @@
         <v>225</v>
       </c>
       <c r="B25" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -5447,12 +5461,11 @@
         <v>226</v>
       </c>
       <c r="B26" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5463,11 +5476,11 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
